--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13063.7925043087</v>
+        <v>-20876.76354211399</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3619643.648511508</v>
+        <v>3619643.648511507</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>136.0829573912428</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1381,13 +1381,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>93.53818910684556</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H12" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
         <v>275.6027656317444</v>
@@ -1590,13 +1590,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>119.8461174193198</v>
+        <v>154.4368869916637</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>277.276785692969</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>200.6809321206136</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H15" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>21.78869975404411</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>200.2033490604294</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>172.3976083576599</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>344.2539137961155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H18" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.9916225685295</v>
+        <v>77.20378078338656</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2092,10 +2092,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>176.0867819309705</v>
+        <v>136.0829573912428</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2241,25 +2241,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>112.7055118911053</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144772</v>
+        <v>57.09228531058712</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811442</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>116.6395830120779</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>137.3573959428969</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T24" t="n">
         <v>124.8306395731037</v>
@@ -2478,10 +2478,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>77.20378078338656</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>49.34995949258614</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>239.8247518556274</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>328.5107569703942</v>
       </c>
       <c r="G26" t="n">
-        <v>195.7731869217376</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2721,19 +2721,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>227.4027127276579</v>
+        <v>129.9221536058845</v>
       </c>
       <c r="U28" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>395.8702403086787</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>347.3207662723228</v>
       </c>
     </row>
     <row r="30">
@@ -2952,7 +2952,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>55.96684102370093</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3015,10 +3015,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>129.2558279457862</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
@@ -3091,13 +3091,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>401.5266111030793</v>
+        <v>358.0685425954614</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3189,10 +3189,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>49.34995949258659</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>55.96684102370052</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>341.322575614522</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3277,10 +3277,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>170.8454278428339</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3426,10 +3426,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>55.55421272101214</v>
       </c>
       <c r="D37" t="n">
-        <v>49.34995949258614</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>118.7719240367915</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>340.2352302787465</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>214.2309914784215</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>194.7281928688458</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>49.34995949258614</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>49.34995949258592</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>176.6134002454847</v>
       </c>
       <c r="G44" t="n">
-        <v>116.6395830120773</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>49.34995949258575</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4149,7 +4149,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>49.34995949258617</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2182.403674944107</v>
+        <v>1849.019264653159</v>
       </c>
       <c r="C11" t="n">
-        <v>1744.26120212753</v>
+        <v>1410.876791836582</v>
       </c>
       <c r="D11" t="n">
-        <v>1308.351417301975</v>
+        <v>974.9670070110265</v>
       </c>
       <c r="E11" t="n">
-        <v>874.5766724602698</v>
+        <v>541.1922621693216</v>
       </c>
       <c r="F11" t="n">
-        <v>446.7092428694776</v>
+        <v>541.1922621693216</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895474</v>
+        <v>141.6895708487987</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228018</v>
+        <v>512.324927422801</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867017</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973258</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152527</v>
       </c>
       <c r="Q11" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163595</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447735</v>
       </c>
       <c r="S11" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662532</v>
       </c>
       <c r="T11" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131645</v>
       </c>
       <c r="U11" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.019264653159</v>
       </c>
       <c r="V11" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.019264653159</v>
       </c>
       <c r="W11" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.019264653159</v>
       </c>
       <c r="X11" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.019264653159</v>
       </c>
       <c r="Y11" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.019264653159</v>
       </c>
     </row>
     <row r="12">
@@ -5099,49 +5099,49 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043081</v>
       </c>
       <c r="J12" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.795299121068</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960903</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987875</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q12" t="n">
-        <v>1614.947661807679</v>
+        <v>1614.947661807678</v>
       </c>
       <c r="R12" t="n">
         <v>1676.651116233592</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.291841223631</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C13" t="n">
-        <v>919.7301297068562</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D13" t="n">
-        <v>753.852136908379</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E13" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="H13" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158276</v>
       </c>
       <c r="K13" t="n">
-        <v>477.6707703898317</v>
+        <v>564.2504555545213</v>
       </c>
       <c r="L13" t="n">
-        <v>862.082053811994</v>
+        <v>688.1212571728192</v>
       </c>
       <c r="M13" t="n">
-        <v>992.6864461505235</v>
+        <v>818.7256495113486</v>
       </c>
       <c r="N13" t="n">
-        <v>1120.185357954413</v>
+        <v>1120.185357954412</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527955</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.89643867598</v>
       </c>
       <c r="Q13" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.856484770968</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447735</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447735</v>
       </c>
       <c r="T13" t="n">
-        <v>2215.901038951972</v>
+        <v>2118.080353351142</v>
       </c>
       <c r="U13" t="n">
-        <v>1937.514407000715</v>
+        <v>1839.693721399885</v>
       </c>
       <c r="V13" t="n">
-        <v>1650.558898871145</v>
+        <v>1552.738213270315</v>
       </c>
       <c r="W13" t="n">
-        <v>1529.502214609206</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X13" t="n">
-        <v>1284.110459942618</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y13" t="n">
-        <v>1284.110459942618</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>485.3490243655314</v>
+        <v>1957.244257596359</v>
       </c>
       <c r="C14" t="n">
-        <v>47.20655154895474</v>
+        <v>1519.101784779782</v>
       </c>
       <c r="D14" t="n">
-        <v>47.20655154895474</v>
+        <v>1083.191999954227</v>
       </c>
       <c r="E14" t="n">
-        <v>47.20655154895474</v>
+        <v>649.4172551125216</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895474</v>
+        <v>649.4172551125216</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>249.9145637919988</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973258</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152527</v>
       </c>
       <c r="Q14" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163595</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447735</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662532</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662532</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662532</v>
       </c>
       <c r="V14" t="n">
-        <v>1997.710627381563</v>
+        <v>1957.244257596359</v>
       </c>
       <c r="W14" t="n">
-        <v>1592.855172792597</v>
+        <v>1957.244257596359</v>
       </c>
       <c r="X14" t="n">
-        <v>1173.712709371907</v>
+        <v>1957.244257596359</v>
       </c>
       <c r="Y14" t="n">
-        <v>765.4265856715607</v>
+        <v>1957.244257596359</v>
       </c>
     </row>
     <row r="15">
@@ -5336,49 +5336,49 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043081</v>
       </c>
       <c r="J15" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210682</v>
+        <v>335.795299121068</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960903</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987875</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P15" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q15" t="n">
-        <v>1614.947661807679</v>
+        <v>1614.947661807678</v>
       </c>
       <c r="R15" t="n">
         <v>1676.651116233592</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>713.9024503859703</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C16" t="n">
-        <v>713.9024503859703</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D16" t="n">
-        <v>548.024457587493</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E16" t="n">
-        <v>378.2664538382302</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F16" t="n">
-        <v>201.5593997999864</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G16" t="n">
-        <v>201.5593997999864</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>69.21533917930233</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>192.6919004158276</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>564.2504555545213</v>
       </c>
       <c r="L16" t="n">
-        <v>688.1212571728194</v>
+        <v>688.1212571728192</v>
       </c>
       <c r="M16" t="n">
-        <v>1272.302332591134</v>
+        <v>818.7256495113486</v>
       </c>
       <c r="N16" t="n">
-        <v>1399.801244395024</v>
+        <v>1120.185357954412</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527957</v>
+        <v>1657.620488527955</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.89643867598</v>
       </c>
       <c r="Q16" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.856484770968</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447735</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.90103895197</v>
       </c>
       <c r="T16" t="n">
-        <v>2215.901038951972</v>
+        <v>1973.653814855377</v>
       </c>
       <c r="U16" t="n">
-        <v>1937.514407000715</v>
+        <v>1695.26718290412</v>
       </c>
       <c r="V16" t="n">
-        <v>1650.558898871145</v>
+        <v>1493.041577792575</v>
       </c>
       <c r="W16" t="n">
-        <v>1378.532494457437</v>
+        <v>1221.015173378866</v>
       </c>
       <c r="X16" t="n">
-        <v>1133.140739790849</v>
+        <v>1221.015173378866</v>
       </c>
       <c r="Y16" t="n">
-        <v>905.7210691049575</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>752.8378878305998</v>
+        <v>1529.172552373862</v>
       </c>
       <c r="C17" t="n">
-        <v>752.8378878305998</v>
+        <v>1091.030079557286</v>
       </c>
       <c r="D17" t="n">
-        <v>316.9281030050443</v>
+        <v>655.1202947317302</v>
       </c>
       <c r="E17" t="n">
-        <v>316.9281030050443</v>
+        <v>221.3455498900253</v>
       </c>
       <c r="F17" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K17" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867029</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5545,22 +5545,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T17" t="n">
-        <v>2148.556325916849</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U17" t="n">
-        <v>1889.485634438363</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V17" t="n">
-        <v>1526.86868437219</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W17" t="n">
-        <v>1526.86868437219</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="X17" t="n">
-        <v>1526.86868437219</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="Y17" t="n">
-        <v>1179.137458315508</v>
+        <v>1955.47212285877</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663906</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030329</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495866</v>
+        <v>341.0245550495861</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765403</v>
+        <v>246.9041403765398</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927019</v>
+        <v>163.5203019927014</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235873</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
         <v>47.20655154895474</v>
@@ -5594,25 +5594,25 @@
         <v>81.42328772043086</v>
       </c>
       <c r="J18" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P18" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q18" t="n">
         <v>1614.947661807679</v>
@@ -5633,13 +5633,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W18" t="n">
-        <v>945.2284211280535</v>
+        <v>945.228421128053</v>
       </c>
       <c r="X18" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669329</v>
       </c>
       <c r="Y18" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461537</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>743.6816307030854</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C19" t="n">
-        <v>743.6816307030854</v>
+        <v>471.655226289377</v>
       </c>
       <c r="D19" t="n">
-        <v>584.0941331591162</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E19" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F19" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G19" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I19" t="n">
         <v>47.20655154895474</v>
@@ -5676,22 +5676,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>289.4920009833859</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>481.9462364092383</v>
+        <v>733.4227107706877</v>
       </c>
       <c r="M19" t="n">
-        <v>1066.127311827553</v>
+        <v>1317.603786189002</v>
       </c>
       <c r="N19" t="n">
-        <v>1635.885026789087</v>
+        <v>1887.361501150537</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.32015736263</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5712,13 +5712,13 @@
         <v>1408.311674774552</v>
       </c>
       <c r="W19" t="n">
-        <v>1408.311674774552</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X19" t="n">
-        <v>1162.919920107964</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y19" t="n">
-        <v>935.5002494220726</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1355.033554032792</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="C20" t="n">
-        <v>916.8910812162151</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="D20" t="n">
-        <v>480.9812963906596</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E20" t="n">
-        <v>47.20655154895474</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
         <v>47.20655154895474</v>
@@ -5749,19 +5749,19 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
         <v>1463.013992431967</v>
@@ -5773,31 +5773,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R20" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>2182.462141153827</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="V20" t="n">
-        <v>2182.462141153827</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="W20" t="n">
-        <v>2182.462141153827</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="X20" t="n">
-        <v>1763.319677733138</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="Y20" t="n">
-        <v>1355.033554032792</v>
+        <v>2182.403674944107</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043032</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J21" t="n">
-        <v>175.3166270668975</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210677</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960902</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
         <v>1488.088567599445</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>699.0748969752688</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C22" t="n">
-        <v>585.2309455701119</v>
+        <v>616.081764785142</v>
       </c>
       <c r="D22" t="n">
-        <v>419.3529527716346</v>
+        <v>616.081764785142</v>
       </c>
       <c r="E22" t="n">
-        <v>419.3529527716346</v>
+        <v>446.3237610358793</v>
       </c>
       <c r="F22" t="n">
-        <v>242.6458987333908</v>
+        <v>269.6167069976354</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>104.8755266101539</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I22" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545215</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>1106.331138940781</v>
+        <v>588.0160255186817</v>
       </c>
       <c r="M22" t="n">
-        <v>1236.93553127931</v>
+        <v>718.6204178572111</v>
       </c>
       <c r="N22" t="n">
-        <v>1364.4344430832</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T22" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U22" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W22" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X22" t="n">
-        <v>890.8935156942559</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y22" t="n">
-        <v>890.8935156942559</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1293.318111528908</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C23" t="n">
-        <v>855.1756387123316</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D23" t="n">
-        <v>855.1756387123316</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E23" t="n">
-        <v>716.4307943255671</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F23" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G23" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R23" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2319.861207662535</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2319.861207662535</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>2060.790516184049</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V23" t="n">
-        <v>1698.173566117875</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W23" t="n">
-        <v>1293.318111528908</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X23" t="n">
-        <v>1293.318111528908</v>
+        <v>1900.718744241844</v>
       </c>
       <c r="Y23" t="n">
-        <v>1293.318111528908</v>
+        <v>1900.718744241844</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>930.5806015906853</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>762.8256627965038</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J24" t="n">
-        <v>858.9930882810432</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M24" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N24" t="n">
-        <v>1745.537825434254</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O24" t="n">
-        <v>1981.990728248784</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P24" t="n">
-        <v>2171.765028813591</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q24" t="n">
-        <v>2298.624123021825</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R24" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S24" t="n">
-        <v>2315.706546847472</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T24" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U24" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V24" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W24" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X24" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y24" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>471.655226289377</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C25" t="n">
-        <v>393.6716093364613</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D25" t="n">
         <v>393.6716093364613</v>
       </c>
       <c r="E25" t="n">
-        <v>223.9136055871986</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F25" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G25" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K25" t="n">
-        <v>564.2504555545215</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>688.1212571728196</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M25" t="n">
-        <v>1272.302332591134</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N25" t="n">
-        <v>1399.801244395024</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O25" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P25" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q25" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R25" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T25" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U25" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V25" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W25" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X25" t="n">
-        <v>890.8935156942559</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y25" t="n">
-        <v>663.4738450083642</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1106.599419841793</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="C26" t="n">
-        <v>1106.599419841793</v>
+        <v>1048.25984177041</v>
       </c>
       <c r="D26" t="n">
-        <v>1106.599419841793</v>
+        <v>1048.25984177041</v>
       </c>
       <c r="E26" t="n">
-        <v>672.8246750000881</v>
+        <v>1048.25984177041</v>
       </c>
       <c r="F26" t="n">
-        <v>244.9572454092958</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M26" t="n">
         <v>1131.588690455489</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V26" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W26" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X26" t="n">
-        <v>1941.185114027047</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="Y26" t="n">
-        <v>1532.898990326701</v>
+        <v>1486.402314586986</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043085</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
@@ -6311,10 +6311,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M27" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
@@ -6344,13 +6344,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W27" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X27" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y27" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="28">
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>915.5847871853875</v>
+        <v>727.0944902899325</v>
       </c>
       <c r="C28" t="n">
-        <v>743.0230756686125</v>
+        <v>554.5327787731575</v>
       </c>
       <c r="D28" t="n">
-        <v>577.1450828701352</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="E28" t="n">
-        <v>407.3870791208724</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F28" t="n">
-        <v>407.3870791208724</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G28" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H28" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I28" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K28" t="n">
-        <v>202.912315818696</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L28" t="n">
-        <v>744.992999204955</v>
+        <v>413.3628026016838</v>
       </c>
       <c r="M28" t="n">
-        <v>875.5973915434845</v>
+        <v>997.5438780199985</v>
       </c>
       <c r="N28" t="n">
-        <v>1445.355106505019</v>
+        <v>1567.301592981533</v>
       </c>
       <c r="O28" t="n">
-        <v>1982.790237078561</v>
+        <v>1685.067474329294</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6414,22 +6414,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T28" t="n">
-        <v>2130.627867621819</v>
+        <v>2229.093078855934</v>
       </c>
       <c r="U28" t="n">
-        <v>1852.241235670562</v>
+        <v>1950.706446904677</v>
       </c>
       <c r="V28" t="n">
-        <v>1852.241235670562</v>
+        <v>1663.750938775107</v>
       </c>
       <c r="W28" t="n">
-        <v>1580.214831256854</v>
+        <v>1391.724534361399</v>
       </c>
       <c r="X28" t="n">
-        <v>1334.823076590267</v>
+        <v>1146.332779694812</v>
       </c>
       <c r="Y28" t="n">
-        <v>1107.403405904375</v>
+        <v>918.9131090089197</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>921.2588091910869</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C29" t="n">
-        <v>483.1163363745102</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D29" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E29" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435806</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L29" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N29" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
         <v>2043.069798152528</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2148.556325916849</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>2148.556325916849</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W29" t="n">
-        <v>1748.687396312123</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X29" t="n">
-        <v>1329.544932891434</v>
+        <v>1067.259851166297</v>
       </c>
       <c r="Y29" t="n">
-        <v>921.2588091910869</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="30">
@@ -6521,19 +6521,19 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
         <v>47.20655154895473</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>616.0817647851416</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C31" t="n">
-        <v>559.5496021349386</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D31" t="n">
-        <v>393.6716093364613</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E31" t="n">
-        <v>223.9136055871985</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895473</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
         <v>47.20655154895473</v>
@@ -6627,16 +6627,16 @@
         <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>744.992999204955</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M31" t="n">
-        <v>1329.17407462327</v>
+        <v>910.9641928553087</v>
       </c>
       <c r="N31" t="n">
-        <v>1898.931789584804</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.32015736263</v>
+        <v>2018.157038390386</v>
       </c>
       <c r="P31" t="n">
         <v>2274.089213540313</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T31" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.738213270316</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.711808856608</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X31" t="n">
-        <v>1035.320054190021</v>
+        <v>1284.110459942618</v>
       </c>
       <c r="Y31" t="n">
-        <v>807.9003835041287</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="32">
@@ -6694,55 +6694,55 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867029</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R32" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T32" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U32" t="n">
-        <v>1889.485634438363</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V32" t="n">
-        <v>1526.86868437219</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W32" t="n">
-        <v>1122.013229783223</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X32" t="n">
-        <v>716.4307943255671</v>
+        <v>1124.716918025914</v>
       </c>
       <c r="Y32" t="n">
         <v>716.4307943255671</v>
@@ -6758,25 +6758,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J33" t="n">
         <v>175.316627066898</v>
@@ -6785,10 +6785,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M33" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N33" t="n">
         <v>1061.861364220108</v>
@@ -6834,58 +6834,58 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>616.081764785142</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C34" t="n">
-        <v>443.520053268367</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="D34" t="n">
-        <v>393.6716093364613</v>
+        <v>450.2037719866638</v>
       </c>
       <c r="E34" t="n">
-        <v>223.9136055871985</v>
+        <v>280.4457682374011</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895474</v>
+        <v>103.7387141991573</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J34" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K34" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L34" t="n">
-        <v>744.992999204955</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M34" t="n">
-        <v>875.5973915434845</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N34" t="n">
-        <v>1288.378132818745</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O34" t="n">
-        <v>1825.813263392288</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P34" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R34" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S34" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T34" t="n">
         <v>2118.080353351143</v>
@@ -6894,16 +6894,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V34" t="n">
-        <v>1552.738213270317</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W34" t="n">
-        <v>1280.711808856609</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X34" t="n">
-        <v>1035.320054190021</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y34" t="n">
-        <v>807.9003835041292</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1955.47212285877</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="C35" t="n">
-        <v>1517.329650042193</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D35" t="n">
-        <v>1081.419865216638</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E35" t="n">
-        <v>647.6451203749327</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F35" t="n">
-        <v>219.7776907841405</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
         <v>2043.069798152528</v>
@@ -6961,28 +6961,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V35" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W35" t="n">
-        <v>1955.47212285877</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X35" t="n">
-        <v>1955.47212285877</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="Y35" t="n">
-        <v>1955.47212285877</v>
+        <v>1699.803832431299</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7022,10 +7022,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M36" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
@@ -7071,58 +7071,58 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>616.0817647851416</v>
+        <v>843.5014354710329</v>
       </c>
       <c r="C37" t="n">
-        <v>443.5200532683665</v>
+        <v>787.3860690861721</v>
       </c>
       <c r="D37" t="n">
-        <v>393.6716093364613</v>
+        <v>621.5080762876948</v>
       </c>
       <c r="E37" t="n">
-        <v>223.9136055871985</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F37" t="n">
-        <v>47.20655154895473</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J37" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L37" t="n">
-        <v>744.992999204955</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M37" t="n">
-        <v>1329.17407462327</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N37" t="n">
-        <v>1898.931789584804</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O37" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T37" t="n">
         <v>2118.080353351143</v>
@@ -7137,10 +7137,10 @@
         <v>1280.711808856608</v>
       </c>
       <c r="X37" t="n">
-        <v>1035.320054190021</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y37" t="n">
-        <v>807.9003835041287</v>
+        <v>1035.32005419002</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>716.4307943255671</v>
+        <v>1440.733140952813</v>
       </c>
       <c r="C38" t="n">
-        <v>716.4307943255671</v>
+        <v>1002.590668136237</v>
       </c>
       <c r="D38" t="n">
-        <v>716.4307943255671</v>
+        <v>566.6808833106811</v>
       </c>
       <c r="E38" t="n">
-        <v>716.4307943255671</v>
+        <v>566.6808833106811</v>
       </c>
       <c r="F38" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G38" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H38" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N38" t="n">
         <v>1463.013992431967</v>
@@ -7210,16 +7210,16 @@
         <v>1849.01926465316</v>
       </c>
       <c r="V38" t="n">
-        <v>1486.402314586986</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W38" t="n">
-        <v>1142.730364810475</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X38" t="n">
-        <v>1142.730364810475</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y38" t="n">
-        <v>1142.730364810475</v>
+        <v>1440.733140952813</v>
       </c>
     </row>
     <row r="39">
@@ -7259,10 +7259,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M39" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
@@ -7338,13 +7338,13 @@
         <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>481.9462364092375</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M40" t="n">
-        <v>1066.127311827552</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N40" t="n">
-        <v>1635.885026789086</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O40" t="n">
         <v>2173.32015736263</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>884.8517156860543</v>
+        <v>701.7439652528259</v>
       </c>
       <c r="C41" t="n">
-        <v>446.7092428694776</v>
+        <v>263.6014924362492</v>
       </c>
       <c r="D41" t="n">
-        <v>446.7092428694776</v>
+        <v>263.6014924362492</v>
       </c>
       <c r="E41" t="n">
-        <v>446.7092428694776</v>
+        <v>263.6014924362492</v>
       </c>
       <c r="F41" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G41" t="n">
         <v>47.20655154895473</v>
@@ -7408,25 +7408,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L41" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
         <v>2043.069798152528</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U41" t="n">
-        <v>1849.01926465316</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V41" t="n">
-        <v>1486.402314586986</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W41" t="n">
-        <v>1081.54685999802</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="X41" t="n">
-        <v>884.8517156860543</v>
+        <v>1536.32965943808</v>
       </c>
       <c r="Y41" t="n">
-        <v>884.8517156860543</v>
+        <v>1128.043535737734</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J42" t="n">
-        <v>858.9930882810423</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>616.0817647851416</v>
+        <v>566.2333208532364</v>
       </c>
       <c r="C43" t="n">
-        <v>443.5200532683665</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="D43" t="n">
         <v>393.6716093364613</v>
@@ -7575,13 +7575,13 @@
         <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>744.992999204955</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M43" t="n">
-        <v>1329.17407462327</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N43" t="n">
-        <v>1898.931789584804</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O43" t="n">
         <v>2173.32015736263</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447737</v>
+        <v>2310.479133515832</v>
       </c>
       <c r="T43" t="n">
-        <v>2118.080353351143</v>
+        <v>2068.231909419238</v>
       </c>
       <c r="U43" t="n">
-        <v>1839.693721399886</v>
+        <v>1789.845277467981</v>
       </c>
       <c r="V43" t="n">
-        <v>1552.738213270316</v>
+        <v>1502.889769338411</v>
       </c>
       <c r="W43" t="n">
-        <v>1280.711808856608</v>
+        <v>1230.863364924703</v>
       </c>
       <c r="X43" t="n">
-        <v>1035.320054190021</v>
+        <v>985.4716102581153</v>
       </c>
       <c r="Y43" t="n">
-        <v>807.9003835041287</v>
+        <v>758.0519395722235</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1900.718744241844</v>
+        <v>894.8281683109052</v>
       </c>
       <c r="C44" t="n">
-        <v>1462.576271425267</v>
+        <v>894.8281683109052</v>
       </c>
       <c r="D44" t="n">
-        <v>1026.666486599712</v>
+        <v>894.8281683109052</v>
       </c>
       <c r="E44" t="n">
-        <v>592.8917417580069</v>
+        <v>894.8281683109052</v>
       </c>
       <c r="F44" t="n">
-        <v>165.0243121672146</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001349</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867018</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M44" t="n">
         <v>1131.588690455489</v>
@@ -7672,28 +7672,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>2319.861207662533</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U44" t="n">
-        <v>2319.861207662533</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V44" t="n">
-        <v>2319.861207662533</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W44" t="n">
-        <v>2319.861207662533</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="X44" t="n">
-        <v>1900.718744241844</v>
+        <v>1729.41386249616</v>
       </c>
       <c r="Y44" t="n">
-        <v>1900.718744241844</v>
+        <v>1321.127738795813</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
         <v>81.42328772043084</v>
@@ -7782,58 +7782,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.0817647851411</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C46" t="n">
-        <v>443.520053268366</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D46" t="n">
-        <v>393.6716093364612</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="E46" t="n">
-        <v>223.9136055871985</v>
+        <v>273.7620495191038</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895472</v>
+        <v>97.05499548085996</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>1106.33113894078</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M46" t="n">
-        <v>1236.93553127931</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N46" t="n">
-        <v>1364.434443083199</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
         <v>2118.080353351143</v>
@@ -7848,10 +7848,10 @@
         <v>1280.711808856608</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.32005419002</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.9003835041283</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
   </sheetData>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,19 +8847,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>263.1722038422874</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>175.7179764032057</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9093,13 +9093,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>175.7179764032057</v>
       </c>
       <c r="O16" t="n">
-        <v>141.4680432173448</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9324,25 +9324,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>69.27619576520647</v>
+        <v>45.75904403825086</v>
       </c>
       <c r="M19" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>263.871624324937</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>177.1920849464594</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M25" t="n">
-        <v>458.1582657371571</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>141.4680432173445</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>192.4544649334025</v>
+        <v>323.2928365343471</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10275,19 +10275,19 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>158.204531747539</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>156.7304232042866</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10518,16 +10518,16 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>288.1634641124962</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>458.158265737157</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>158.204531747539</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10986,16 +10986,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>156.7304232042864</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475392</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M43" t="n">
         <v>458.158265737157</v>
@@ -11232,7 +11232,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>158.2045317475395</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>177.1920849464593</v>
+        <v>158.2045317475392</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>285.9536173888159</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>173.4861468346831</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>149.4600229502516</v>
+        <v>114.8692533779077</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>144.7597890870897</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>66.34340382091503</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>40.67563394407031</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>83.88260398784445</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23734,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>251.1911469372245</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>59.94934866722764</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23895,22 +23895,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>6.227590301963005</v>
+        <v>87.01543208710596</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23980,10 +23980,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>80.39320263273066</v>
+        <v>120.3970271724584</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -24034,10 +24034,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>58.13058251050201</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>73.92833470389014</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>305.3969917679808</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>292.0796014503909</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,16 +24262,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>93.63231361822075</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>114.8692533779064</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144772</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>95.07799832449012</v>
       </c>
       <c r="G26" t="n">
-        <v>199.7344774855799</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>12.4220391279695</v>
+        <v>109.9025982497429</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24682,10 +24682,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -24694,10 +24694,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>4.936659734398347</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>56.88249619102032</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>114.8692533779064</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>113.6820091741354</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>13.42442768340305</v>
+        <v>56.882496191021</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>107.1269275599062</v>
       </c>
       <c r="H34" t="n">
         <v>131.0206200144773</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>80.71399916553668</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>224.6622365644837</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
@@ -25216,13 +25216,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>115.2818816805952</v>
       </c>
       <c r="D37" t="n">
-        <v>114.8692533779064</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>304.8168312580929</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>60.57166976433052</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,10 +25639,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>209.3577638164628</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>220.2228459176366</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>114.8692533779064</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>93.6323136182219</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>246.9753550493997</v>
       </c>
       <c r="G44" t="n">
-        <v>278.8680813952403</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.4799845637012</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>114.8692533779068</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>113.7438090910206</v>
       </c>
       <c r="H46" t="n">
         <v>131.0206200144773</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>417152.4561381981</v>
+        <v>417152.456138198</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>417152.4561381982</v>
+        <v>417152.456138198</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>417152.4561381983</v>
+        <v>417152.4561381982</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>417152.4561381983</v>
+        <v>417152.4561381982</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>417152.4561381982</v>
+        <v>417152.4561381981</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>417152.4561381983</v>
+        <v>417152.4561381981</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>417152.4561381982</v>
+        <v>417152.4561381981</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>417152.4561381982</v>
+        <v>417152.4561381981</v>
       </c>
     </row>
     <row r="16">
@@ -26322,10 +26322,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>149432.6927357765</v>
+        <v>149432.6927357764</v>
       </c>
       <c r="F2" t="n">
-        <v>149432.6927357765</v>
+        <v>149432.6927357764</v>
       </c>
       <c r="G2" t="n">
         <v>149432.6927357765</v>
@@ -26340,22 +26340,22 @@
         <v>149432.6927357765</v>
       </c>
       <c r="K2" t="n">
+        <v>149432.6927357765</v>
+      </c>
+      <c r="L2" t="n">
         <v>149432.6927357764</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>149432.6927357765</v>
-      </c>
-      <c r="M2" t="n">
-        <v>149432.6927357764</v>
       </c>
       <c r="N2" t="n">
         <v>149432.6927357765</v>
       </c>
       <c r="O2" t="n">
+        <v>149432.6927357764</v>
+      </c>
+      <c r="P2" t="n">
         <v>149432.6927357765</v>
-      </c>
-      <c r="P2" t="n">
-        <v>149432.6927357764</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>551135.2009906757</v>
+        <v>551135.2009906755</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>16511.41869660761</v>
+        <v>16511.41869660762</v>
       </c>
       <c r="F4" t="n">
-        <v>16511.41869660761</v>
+        <v>16511.41869660762</v>
       </c>
       <c r="G4" t="n">
-        <v>16511.41869660761</v>
+        <v>16511.41869660762</v>
       </c>
       <c r="H4" t="n">
         <v>16511.41869660761</v>
       </c>
       <c r="I4" t="n">
-        <v>16511.41869660761</v>
+        <v>16511.4186966076</v>
       </c>
       <c r="J4" t="n">
         <v>16511.41869660761</v>
@@ -26478,19 +26478,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963779</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963779</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
         <v>46051.08120963781</v>
@@ -26499,7 +26499,7 @@
         <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
         <v>46051.08120963781</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-464265.0081611447</v>
+        <v>-464818.8886043665</v>
       </c>
       <c r="F6" t="n">
-        <v>86870.19282953108</v>
+        <v>86316.31238630906</v>
       </c>
       <c r="G6" t="n">
-        <v>86870.19282953105</v>
+        <v>86316.31238630901</v>
       </c>
       <c r="H6" t="n">
-        <v>86870.19282953108</v>
+        <v>86316.31238630912</v>
       </c>
       <c r="I6" t="n">
-        <v>86870.19282953106</v>
+        <v>86316.3123863091</v>
       </c>
       <c r="J6" t="n">
-        <v>86870.19282953106</v>
+        <v>86316.3123863091</v>
       </c>
       <c r="K6" t="n">
-        <v>86870.19282953101</v>
+        <v>86316.31238630913</v>
       </c>
       <c r="L6" t="n">
-        <v>86870.19282953105</v>
+        <v>86316.31238630907</v>
       </c>
       <c r="M6" t="n">
-        <v>-60180.57557304043</v>
+        <v>-60734.45601626222</v>
       </c>
       <c r="N6" t="n">
-        <v>86870.19282953104</v>
+        <v>86316.31238630913</v>
       </c>
       <c r="O6" t="n">
-        <v>86870.19282953104</v>
+        <v>86316.31238630893</v>
       </c>
       <c r="P6" t="n">
-        <v>86870.19282953101</v>
+        <v>86316.3123863091</v>
       </c>
     </row>
   </sheetData>
@@ -26746,34 +26746,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>466.7019280932209</v>
+      </c>
+      <c r="F3" t="n">
+        <v>466.7019280932209</v>
+      </c>
+      <c r="G3" t="n">
+        <v>466.701928093221</v>
+      </c>
+      <c r="H3" t="n">
         <v>466.7019280932212</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>466.7019280932212</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>466.7019280932212</v>
       </c>
-      <c r="H3" t="n">
-        <v>466.7019280932213</v>
-      </c>
-      <c r="I3" t="n">
-        <v>466.7019280932213</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>466.7019280932211</v>
       </c>
-      <c r="K3" t="n">
-        <v>466.7019280932212</v>
-      </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
         <v>466.7019280932211</v>
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619338</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619338</v>
       </c>
       <c r="G4" t="n">
         <v>590.0818943619342</v>
@@ -26810,7 +26810,7 @@
         <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
         <v>590.0818943619341</v>
@@ -26819,10 +26819,10 @@
         <v>590.0818943619341</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
         <v>590.0818943619341</v>
@@ -26831,7 +26831,7 @@
         <v>590.0818943619341</v>
       </c>
       <c r="P4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932209</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619338</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619338</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619338</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H11" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968722</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699057</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766672</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879471</v>
+        <v>202.6072676879469</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.21301584011286</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.69507212887993</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562334</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917231</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.3267216423362</v>
       </c>
       <c r="S12" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183763</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600659</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356902</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238408</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051972</v>
       </c>
       <c r="I13" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624555</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116985</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247771</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048099</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207635</v>
       </c>
       <c r="R13" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195196</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130046</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H14" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968722</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699057</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766672</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.69507212887993</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562334</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233621</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356903</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238409</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051973</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624555</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116987</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M16" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766682</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,13 +32466,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
@@ -32481,10 +32481,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548411</v>
@@ -32499,10 +32499,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
         <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917233</v>
@@ -32575,16 +32575,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998885</v>
@@ -32651,19 +32651,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,13 +32703,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H23" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J23" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
@@ -32718,10 +32718,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
         <v>316.1166813548411</v>
@@ -32736,10 +32736,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917233</v>
@@ -32812,16 +32812,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233554</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,25 +32858,25 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
         <v>128.7867795998885</v>
@@ -32888,19 +32888,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R25" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32976,7 +32976,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,13 +33019,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33037,25 +33037,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356906</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
@@ -33107,7 +33107,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33131,10 +33131,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
         <v>0.04590510768130049</v>
@@ -33180,28 +33180,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -33213,7 +33213,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,13 +33256,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -33274,25 +33274,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
         <v>0.06604272567356906</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
@@ -33344,7 +33344,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33368,10 +33368,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
         <v>0.04590510768130049</v>
@@ -33417,28 +33417,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -33450,7 +33450,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,13 +33493,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33511,25 +33511,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
         <v>0.06604272567356906</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
@@ -33581,7 +33581,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33605,10 +33605,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
         <v>0.04590510768130049</v>
@@ -33654,28 +33654,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -33687,7 +33687,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,13 +33730,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -33748,25 +33748,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
         <v>0.06604272567356906</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
@@ -33818,7 +33818,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33842,10 +33842,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
         <v>0.04590510768130049</v>
@@ -33891,28 +33891,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -33924,7 +33924,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,13 +33967,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -33985,25 +33985,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
         <v>0.06604272567356906</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
@@ -34055,7 +34055,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34079,10 +34079,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
         <v>0.04590510768130049</v>
@@ -34210,13 +34210,13 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -34471,7 +34471,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
@@ -35406,25 +35406,25 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785917</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125707</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L11" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
         <v>269.7982739184536</v>
@@ -35433,7 +35433,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562334</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233713</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>388.2942256789519</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>304.5047560030941</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561043</v>
+        <v>542.8637682561041</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027012</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785917</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816035</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562334</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233713</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
         <v>375.3116718572664</v>
@@ -35813,13 +35813,13 @@
         <v>125.1220218366645</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>304.5047560030941</v>
       </c>
       <c r="O16" t="n">
-        <v>260.4234789221546</v>
+        <v>542.8637682561041</v>
       </c>
       <c r="P16" t="n">
         <v>452.8039900485103</v>
@@ -35828,7 +35828,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,22 +35880,22 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766682</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O17" t="n">
         <v>316.1166813548409</v>
@@ -35962,10 +35962,10 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562331</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>194.3982176018711</v>
+        <v>170.8810658749154</v>
       </c>
       <c r="M19" t="n">
         <v>590.0818943619342</v>
@@ -36056,16 +36056,16 @@
         <v>575.512843395489</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561041</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P19" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125713</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916725</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
-        <v>547.5562458447062</v>
+        <v>388.9936461616016</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O22" t="n">
-        <v>296.1475206512694</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,25 +36354,25 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
         <v>269.7982739184536</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917239</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233554</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
-        <v>125.1220218366647</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
-        <v>260.4234789221546</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,22 +36591,22 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
         <v>316.1166813548411</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -36685,7 +36685,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L28" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247772</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N28" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561041</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P28" t="n">
-        <v>294.2413903654058</v>
+        <v>425.0797619663506</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36828,28 +36828,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
         <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36910,7 +36910,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -36995,19 +36995,19 @@
         <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N31" t="n">
-        <v>575.5128433954892</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O31" t="n">
-        <v>277.1599674523491</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>258.5173486362901</v>
       </c>
       <c r="Q31" t="n">
         <v>70.4719911420766</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125714</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O32" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
         <v>117.855135640546</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -37159,7 +37159,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742734</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M34" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>416.9502437123847</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
-        <v>542.8637682561043</v>
+        <v>296.1475206512691</v>
       </c>
       <c r="P34" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
@@ -37311,7 +37311,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
         <v>329.4423112816032</v>
@@ -37320,7 +37320,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P35" t="n">
         <v>269.7982739184533</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916782</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
@@ -37396,7 +37396,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742734</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619342</v>
+        <v>309.1157135712365</v>
       </c>
       <c r="N37" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>277.1599674523491</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
@@ -37548,7 +37548,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37557,7 +37557,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
         <v>269.7982739184533</v>
@@ -37633,7 +37633,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742734</v>
@@ -37706,16 +37706,16 @@
         <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
-        <v>281.852445040951</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N40" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561043</v>
+        <v>277.1599674523491</v>
       </c>
       <c r="P40" t="n">
         <v>101.7869254320035</v>
@@ -37779,25 +37779,25 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O41" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -37879,10 +37879,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37943,16 +37943,16 @@
         <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
-        <v>547.5562458447062</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N43" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O43" t="n">
-        <v>277.1599674523493</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
         <v>101.7869254320035</v>
@@ -38019,7 +38019,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
         <v>296.0766412766673</v>
@@ -38031,7 +38031,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
         <v>269.7982739184536</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O46" t="n">
-        <v>296.1475206512691</v>
+        <v>277.1599674523491</v>
       </c>
       <c r="P46" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
